--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H2">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N2">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q2">
-        <v>3.521412128367</v>
+        <v>0.3801225436263333</v>
       </c>
       <c r="R2">
-        <v>31.692709155303</v>
+        <v>3.421102892637</v>
       </c>
       <c r="S2">
-        <v>0.02249460369070326</v>
+        <v>0.03770980601338797</v>
       </c>
       <c r="T2">
-        <v>0.02249460369070326</v>
+        <v>0.03770980601338797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H3">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.001019</v>
       </c>
       <c r="O3">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P3">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q3">
-        <v>0.008472027932555555</v>
+        <v>0.01142711366655556</v>
       </c>
       <c r="R3">
-        <v>0.076248251393</v>
+        <v>0.102844022999</v>
       </c>
       <c r="S3">
-        <v>5.411888863113035E-05</v>
+        <v>0.001133619268007268</v>
       </c>
       <c r="T3">
-        <v>5.411888863113034E-05</v>
+        <v>0.001133619268007267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H4">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I4">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J4">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N4">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q4">
-        <v>6.360389519972444</v>
+        <v>0.6869837196534446</v>
       </c>
       <c r="R4">
-        <v>57.243505679752</v>
+        <v>6.182853476881</v>
       </c>
       <c r="S4">
-        <v>0.04062984858197528</v>
+        <v>0.06815176641549875</v>
       </c>
       <c r="T4">
-        <v>0.04062984858197528</v>
+        <v>0.06815176641549875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,43 +729,43 @@
         <v>242.358393</v>
       </c>
       <c r="H5">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N5">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q5">
-        <v>34.216884998919</v>
+        <v>2.738407482506999</v>
       </c>
       <c r="R5">
-        <v>307.9519649902711</v>
+        <v>24.64566734256299</v>
       </c>
       <c r="S5">
-        <v>0.218575741640893</v>
+        <v>0.271661906620461</v>
       </c>
       <c r="T5">
-        <v>0.218575741640893</v>
+        <v>0.271661906620461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,13 +791,13 @@
         <v>242.358393</v>
       </c>
       <c r="H6">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I6">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J6">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.001019</v>
       </c>
       <c r="O6">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P6">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q6">
-        <v>0.082321067489</v>
+        <v>0.08232106748899999</v>
       </c>
       <c r="R6">
-        <v>0.740889607401</v>
+        <v>0.7408896074009999</v>
       </c>
       <c r="S6">
-        <v>0.0005258628416831818</v>
+        <v>0.008166607158339964</v>
       </c>
       <c r="T6">
-        <v>0.0005258628416831818</v>
+        <v>0.008166607158339962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>242.358393</v>
       </c>
       <c r="H7">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I7">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J7">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N7">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q7">
-        <v>61.802682793096</v>
+        <v>4.949039171191</v>
       </c>
       <c r="R7">
-        <v>556.224145137864</v>
+        <v>44.541352540719</v>
       </c>
       <c r="S7">
-        <v>0.3947924314947017</v>
+        <v>0.4909661640108582</v>
       </c>
       <c r="T7">
-        <v>0.3947924314947017</v>
+        <v>0.4909661640108582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H8">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I8">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J8">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N8">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q8">
-        <v>7.991613124425001</v>
+        <v>0.110597029986</v>
       </c>
       <c r="R8">
-        <v>71.92451811982501</v>
+        <v>0.995373269874</v>
       </c>
       <c r="S8">
-        <v>0.05105002298232214</v>
+        <v>0.01097170535228417</v>
       </c>
       <c r="T8">
-        <v>0.05105002298232213</v>
+        <v>0.01097170535228417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H9">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I9">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J9">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.001019</v>
       </c>
       <c r="O9">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P9">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q9">
-        <v>0.01922670995277778</v>
+        <v>0.003324730022</v>
       </c>
       <c r="R9">
-        <v>0.173040389575</v>
+        <v>0.029922570198</v>
       </c>
       <c r="S9">
-        <v>0.0001228192568486439</v>
+        <v>0.0003298276471067518</v>
       </c>
       <c r="T9">
-        <v>0.0001228192568486438</v>
+        <v>0.0003298276471067517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H10">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I10">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J10">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N10">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q10">
-        <v>14.43448551642222</v>
+        <v>0.1998785926180001</v>
       </c>
       <c r="R10">
-        <v>129.9103696478</v>
+        <v>1.798907333562</v>
       </c>
       <c r="S10">
-        <v>0.0922067680052229</v>
+        <v>0.01982882383651298</v>
       </c>
       <c r="T10">
-        <v>0.09220676800522289</v>
+        <v>0.01982882383651298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H11">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I11">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J11">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N11">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q11">
-        <v>2.236985667567</v>
+        <v>0.1369457932973333</v>
       </c>
       <c r="R11">
-        <v>20.132871008103</v>
+        <v>1.232512139676</v>
       </c>
       <c r="S11">
-        <v>0.01428975201407002</v>
+        <v>0.01358561702319992</v>
       </c>
       <c r="T11">
-        <v>0.01428975201407002</v>
+        <v>0.01358561702319991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H12">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I12">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J12">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.001019</v>
       </c>
       <c r="O12">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P12">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q12">
-        <v>0.005381876465888889</v>
+        <v>0.004116817516888889</v>
       </c>
       <c r="R12">
-        <v>0.048436888193</v>
+        <v>0.037051357652</v>
       </c>
       <c r="S12">
-        <v>3.437915637231431E-05</v>
+        <v>0.0004084061641632214</v>
       </c>
       <c r="T12">
-        <v>3.437915637231431E-05</v>
+        <v>0.0004084061641632213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H13">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I13">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J13">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N13">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q13">
-        <v>4.04045299943911</v>
+        <v>0.2474978978431112</v>
       </c>
       <c r="R13">
-        <v>36.36407699495199</v>
+        <v>2.227481080588</v>
       </c>
       <c r="S13">
-        <v>0.02581021068824574</v>
+        <v>0.02455286557684309</v>
       </c>
       <c r="T13">
-        <v>0.02581021068824573</v>
+        <v>0.02455286557684309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H14">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I14">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J14">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N14">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q14">
-        <v>7.770548971269001</v>
+        <v>0.1866339367273333</v>
       </c>
       <c r="R14">
-        <v>69.934940741421</v>
+        <v>1.679705430546</v>
       </c>
       <c r="S14">
-        <v>0.04963787628259143</v>
+        <v>0.01851489649196145</v>
       </c>
       <c r="T14">
-        <v>0.04963787628259143</v>
+        <v>0.01851489649196145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H15">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I15">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J15">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.001019</v>
       </c>
       <c r="O15">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P15">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q15">
-        <v>0.018694860339</v>
+        <v>0.005610525460222223</v>
       </c>
       <c r="R15">
-        <v>0.168253743051</v>
+        <v>0.050494729142</v>
       </c>
       <c r="S15">
-        <v>0.0001194218282464619</v>
+        <v>0.0005565884746528816</v>
       </c>
       <c r="T15">
-        <v>0.0001194218282464618</v>
+        <v>0.0005565884746528815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H16">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I16">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J16">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N16">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q16">
-        <v>14.035198505496</v>
+        <v>0.3372977430997778</v>
       </c>
       <c r="R16">
-        <v>126.316786549464</v>
+        <v>3.035679687898</v>
       </c>
       <c r="S16">
-        <v>0.08965614264749289</v>
+        <v>0.03346139994672245</v>
       </c>
       <c r="T16">
-        <v>0.08965614264749287</v>
+        <v>0.03346139994672245</v>
       </c>
     </row>
   </sheetData>
